--- a/projects/test_building/input/Parameter_BuildingComponent_PostponingLifetime.xlsx
+++ b/projects/test_building/input/Parameter_BuildingComponent_PostponingLifetime.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C30F499-7D61-664D-BBAF-D1A0F199B6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="shortened_lifetime" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="17">
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>id_scenario</t>
   </si>
   <si>
     <t>id_building_component</t>
@@ -41,17 +48,60 @@
     <t>year</t>
   </si>
   <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>pdf_literature</t>
+  </si>
+  <si>
+    <t>new_avg_lifetime</t>
+  </si>
+  <si>
+    <t>avg_lifetime</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>rate scaling</t>
+  </si>
+  <si>
+    <t>lifetime*pdf_norm</t>
+  </si>
+  <si>
+    <t>new_lifetime*pdf_norm</t>
+  </si>
+  <si>
+    <t>sum_pdf_literature</t>
+  </si>
+  <si>
+    <t>sum_pdf</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,20 +154,270 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +428,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F36" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_building_component"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="max"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id_scenario"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="id_building_component"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="unit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="min"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="max"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pdf_literature"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="pdf"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="sum_pdf_literature"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="sum_pdf"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:F17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id_scenario"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="id_building_component" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="unit"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="min" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="max" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pdf"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,74 +740,2836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+      <c r="F26">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+      <c r="F35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:R50"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>2.2926829268292686</v>
+      </c>
+      <c r="L2" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5.5</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>2.0487804878048781</v>
+      </c>
+      <c r="L3" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>16.5</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>9.6585365853658534</v>
+      </c>
+      <c r="L4" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>8.4</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>4.6341463414634152</v>
+      </c>
+      <c r="L5" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>4.1951219512195124</v>
+      </c>
+      <c r="L6" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>3.5121951219512195</v>
+      </c>
+      <c r="L7" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>0.02</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>5.1707317073170733</v>
+      </c>
+      <c r="L8" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="J9">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>2.8292682926829267</v>
+      </c>
+      <c r="L9" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="F10">
+        <v>0.01</v>
+      </c>
+      <c r="J10">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>3.0731707317073171</v>
+      </c>
+      <c r="L10" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>0</v>
+      </c>
+      <c r="L11" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>0</v>
+      </c>
+      <c r="L12" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>0</v>
+      </c>
+      <c r="L13" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>SUM(F2:F14)</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I14">
+        <f>SUM(G2:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$14</f>
+        <v>4.048780487804879</v>
+      </c>
+      <c r="K14">
+        <f>SUM(J2:J14)</f>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="L14" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
+        <f>SUM(L2:L14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J16">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>0.52</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>0.61176470588235299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>1.44</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>4.2352941176470589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J18">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>1.84</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>3.2470588235294118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J19">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>3.36</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>3.9529411764705884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J20">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>5.28</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>6.2117647058823531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>3.42</v>
+      </c>
+      <c r="L21">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>3.5764705882352943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J22">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>3.44</v>
+      </c>
+      <c r="L22">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>4.0470588235294116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>1.92</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>2.2588235294117647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="L24">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1">
+        <v>65</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="L26">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>SUM(F15:F27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I27">
+        <f>SUM(G15:G27)</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J27">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$27</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>SUM(J15:J27)</f>
+        <v>39.195000000000007</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$27</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>SUM(L15:L27)</f>
+        <v>28.229411764705883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J28">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>0.84677419354838701</v>
+      </c>
+      <c r="L28" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>0.03</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>4.9354838709677411</v>
+      </c>
+      <c r="L29" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>8.5887096774193541</v>
+      </c>
+      <c r="L30" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <v>0.01</v>
+      </c>
+      <c r="J31">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>2.9354838709677415</v>
+      </c>
+      <c r="L31" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>51</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>2.6854838709677415</v>
+      </c>
+      <c r="L32" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+      <c r="F33">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>1.0564516129032258</v>
+      </c>
+      <c r="L33" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>1.2177419354838708</v>
+      </c>
+      <c r="L34" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J35">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>2.7580645161290316</v>
+      </c>
+      <c r="L35" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>0</v>
+      </c>
+      <c r="L36" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>101</v>
+      </c>
+      <c r="E37">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H37">
+        <f>SUM(F25:F37)</f>
+        <v>0.15500000000000003</v>
+      </c>
+      <c r="I37">
+        <f>SUM(G25:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$37</f>
+        <v>1.7016129032258061</v>
+      </c>
+      <c r="K37">
+        <f>SUM(J28:J37)</f>
+        <v>26.725806451612897</v>
+      </c>
+      <c r="L37" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
+        <f>SUM(L28:L37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>0.02</v>
+      </c>
+      <c r="J38">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>2.2926829268292686</v>
+      </c>
+      <c r="L38" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J39">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>2.0487804878048781</v>
+      </c>
+      <c r="L39" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>35</v>
+      </c>
+      <c r="F40">
+        <v>0.06</v>
+      </c>
+      <c r="J40">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>9.6585365853658534</v>
+      </c>
+      <c r="L40" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J41">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>4.6341463414634152</v>
+      </c>
+      <c r="L41" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>0.02</v>
+      </c>
+      <c r="J42">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>4.1951219512195124</v>
+      </c>
+      <c r="L42" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J43">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>3.5121951219512195</v>
+      </c>
+      <c r="L43" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>51</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <v>0.02</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>5.1707317073170733</v>
+      </c>
+      <c r="L44" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>56</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>0.01</v>
+      </c>
+      <c r="J45">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>2.8292682926829267</v>
+      </c>
+      <c r="L45" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>61</v>
+      </c>
+      <c r="E46">
+        <v>65</v>
+      </c>
+      <c r="F46">
+        <v>0.01</v>
+      </c>
+      <c r="J46">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>3.0731707317073171</v>
+      </c>
+      <c r="L46" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>66</v>
+      </c>
+      <c r="E47">
+        <v>70</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>0</v>
+      </c>
+      <c r="L47" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>71</v>
+      </c>
+      <c r="E48">
+        <v>75</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>0</v>
+      </c>
+      <c r="L48" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>0</v>
+      </c>
+      <c r="L49" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>85</v>
+      </c>
+      <c r="F50">
+        <v>0.01</v>
+      </c>
+      <c r="H50">
+        <f>SUM(F38:F50)</f>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I50">
+        <f>SUM(G38:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf_literature]]/$H$50</f>
+        <v>4.048780487804879</v>
+      </c>
+      <c r="K50">
+        <f>SUM(J38:J50)</f>
+        <v>41.463414634146339</v>
+      </c>
+      <c r="L50" t="e">
+        <f>AVERAGE(Table1[[#This Row],[min]],Table1[[#This Row],[max]])*Table1[[#This Row],[pdf]]/$I$50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" t="e">
+        <f>SUM(L38:L50)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="I5">
+        <f>SUM(H2:H5)</f>
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>SUM(H6:H9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>SUM(H10:H13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="H17">
+        <f>AVERAGE(Table2[[#This Row],[min]:[max]])*Table2[[#This Row],[pdf]]</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>SUM(H14:H17)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>